--- a/NformTester/NformTester/keywordscripts/TST570_UncheckShowTheTimeRangeSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST570_UncheckShowTheTimeRangeSelection.xlsx
@@ -3660,9 +3660,6 @@
     <t>;Clear operation.</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3680,10 +3677,6 @@
     <t>;Add one device.</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -3827,6 +3820,12 @@
   <si>
     <t>;The goal of this test is to check the functionality for Unchecked show the time range selection.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4354,7 +4353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4444,7 +4445,7 @@
         <v>766</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4485,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4516,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4541,7 +4542,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4566,7 +4567,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4585,7 +4586,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -4604,13 +4605,13 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>804</v>
+        <v>848</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>779</v>
@@ -4632,7 +4633,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4697,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>798</v>
+        <v>849</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4744,10 +4745,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -4771,7 +4772,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -4823,7 +4824,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>19</v>
@@ -4835,10 +4836,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J16" s="11" t="b">
         <v>0</v>
@@ -4893,7 +4894,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -4924,7 +4925,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>6</v>
@@ -4953,7 +4954,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>6</v>
@@ -4982,7 +4983,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>6</v>
@@ -5118,10 +5119,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>577</v>
@@ -5130,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5145,10 +5146,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>185</v>
@@ -5170,7 +5171,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>583</v>
@@ -5195,10 +5196,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>95</v>
@@ -5910,7 +5911,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
@@ -6792,7 +6793,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -7321,7 +7322,7 @@
         <v>568</v>
       </c>
       <c r="AU15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BB15" t="s">
         <v>608</v>
@@ -7853,7 +7854,7 @@
         <v>418</v>
       </c>
       <c r="AQ26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BB26" t="s">
         <v>617</v>
@@ -8775,7 +8776,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AO82" t="s">
         <v>332</v>
@@ -8783,10 +8784,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E83" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AO83" t="s">
         <v>360</v>
@@ -8794,7 +8795,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E84" t="s">
         <v>102</v>
@@ -8853,7 +8854,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="E91" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO91" t="s">
         <v>478</v>
@@ -8861,7 +8862,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AO92" t="s">
         <v>479</v>
@@ -8869,7 +8870,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO93" t="s">
         <v>480</v>
@@ -8877,7 +8878,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AO94" t="s">
         <v>481</v>
@@ -8885,7 +8886,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AO95" t="s">
         <v>482</v>
@@ -8893,7 +8894,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AO96" t="s">
         <v>483</v>
@@ -8901,7 +8902,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AO97" t="s">
         <v>484</v>
@@ -8909,7 +8910,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AO98" t="s">
         <v>485</v>
@@ -8917,7 +8918,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AO99" t="s">
         <v>486</v>
@@ -8933,7 +8934,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO101" t="s">
         <v>488</v>
@@ -8941,7 +8942,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO102" t="s">
         <v>382</v>
@@ -8965,7 +8966,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AO105" t="s">
         <v>491</v>
@@ -8973,7 +8974,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO106" t="s">
         <v>492</v>
@@ -8981,7 +8982,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AO107" t="s">
         <v>493</v>
@@ -8989,7 +8990,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AO108" t="s">
         <v>494</v>
@@ -9013,7 +9014,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AO111" t="s">
         <v>497</v>
@@ -9021,7 +9022,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AO112" t="s">
         <v>498</v>
@@ -9029,7 +9030,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO113" t="s">
         <v>499</v>
@@ -9037,7 +9038,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AO114" t="s">
         <v>500</v>
@@ -12610,7 +12611,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="DH2" t="s">
         <v>111</v>
@@ -15573,7 +15574,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -15696,10 +15697,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CI3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -15726,7 +15727,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -15741,10 +15742,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -15852,7 +15853,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -16017,7 +16018,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -16074,7 +16075,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -16287,10 +16288,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -16497,7 +16498,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -16536,7 +16537,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -16587,10 +16588,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -16680,7 +16681,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -16851,7 +16852,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -16866,7 +16867,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -16935,7 +16936,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -16962,13 +16963,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -17130,7 +17131,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -17583,7 +17584,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -17604,10 +17605,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -17652,7 +17653,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -17694,7 +17695,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -17844,7 +17845,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -17865,7 +17866,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -17928,7 +17929,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -17940,10 +17941,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -18051,7 +18052,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -18063,7 +18064,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -18126,7 +18127,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -18276,7 +18277,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -18333,7 +18334,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -18387,7 +18388,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -18417,7 +18418,7 @@
         <v>112</v>
       </c>
       <c r="ALE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -18734,7 +18735,7 @@
         <v>7</v>
       </c>
       <c r="AS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AT4" t="s">
         <v>5</v>
@@ -18857,10 +18858,10 @@
         <v>7</v>
       </c>
       <c r="CH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CI4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CJ4" t="s">
         <v>7</v>
@@ -18887,7 +18888,7 @@
         <v>7</v>
       </c>
       <c r="CR4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CS4" t="s">
         <v>7</v>
@@ -18902,10 +18903,10 @@
         <v>7</v>
       </c>
       <c r="CW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CY4" t="s">
         <v>7</v>
@@ -19013,7 +19014,7 @@
         <v>6</v>
       </c>
       <c r="EH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="EI4" t="s">
         <v>5</v>
@@ -19178,7 +19179,7 @@
         <v>5</v>
       </c>
       <c r="GK4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="GL4" t="s">
         <v>7</v>
@@ -19235,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="HD4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="HE4" t="s">
         <v>7</v>
@@ -19448,10 +19449,10 @@
         <v>7</v>
       </c>
       <c r="JW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JX4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JY4" t="s">
         <v>5</v>
@@ -19658,7 +19659,7 @@
         <v>7</v>
       </c>
       <c r="MO4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="MP4" t="s">
         <v>5</v>
@@ -19697,7 +19698,7 @@
         <v>7</v>
       </c>
       <c r="NB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NC4" t="s">
         <v>7</v>
@@ -19748,10 +19749,10 @@
         <v>5</v>
       </c>
       <c r="NS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NU4" t="s">
         <v>5</v>
@@ -19841,7 +19842,7 @@
         <v>5</v>
       </c>
       <c r="OX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="OY4" t="s">
         <v>7</v>
@@ -20012,7 +20013,7 @@
         <v>7</v>
       </c>
       <c r="RC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="RD4" t="s">
         <v>5</v>
@@ -20027,7 +20028,7 @@
         <v>5</v>
       </c>
       <c r="RH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RI4" t="s">
         <v>7</v>
@@ -20096,7 +20097,7 @@
         <v>5</v>
       </c>
       <c r="SE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SF4" t="s">
         <v>5</v>
@@ -20123,13 +20124,13 @@
         <v>5</v>
       </c>
       <c r="SN4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SO4" t="s">
         <v>5</v>
       </c>
       <c r="SP4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SQ4" t="s">
         <v>7</v>
@@ -20291,7 +20292,7 @@
         <v>5</v>
       </c>
       <c r="UR4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="US4" t="s">
         <v>7</v>
@@ -20744,7 +20745,7 @@
         <v>4</v>
       </c>
       <c r="AAM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAN4" t="s">
         <v>5</v>
@@ -20765,10 +20766,10 @@
         <v>7</v>
       </c>
       <c r="AAT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAV4" t="s">
         <v>5</v>
@@ -20813,7 +20814,7 @@
         <v>7</v>
       </c>
       <c r="ABJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABK4" t="s">
         <v>7</v>
@@ -20855,7 +20856,7 @@
         <v>4</v>
       </c>
       <c r="ABX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABY4" t="s">
         <v>4</v>
@@ -21005,7 +21006,7 @@
         <v>5</v>
       </c>
       <c r="ADV4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ADW4" t="s">
         <v>7</v>
@@ -21026,7 +21027,7 @@
         <v>7</v>
       </c>
       <c r="AEC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AED4" t="s">
         <v>7</v>
@@ -21089,7 +21090,7 @@
         <v>7</v>
       </c>
       <c r="AEX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AEY4" t="s">
         <v>4</v>
@@ -21101,10 +21102,10 @@
         <v>5</v>
       </c>
       <c r="AFB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AFD4" t="s">
         <v>7</v>
@@ -21212,7 +21213,7 @@
         <v>5</v>
       </c>
       <c r="AGM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGN4" t="s">
         <v>7</v>
@@ -21224,7 +21225,7 @@
         <v>7</v>
       </c>
       <c r="AGQ4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGR4" t="s">
         <v>7</v>
@@ -21287,7 +21288,7 @@
         <v>7</v>
       </c>
       <c r="AHL4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AHM4" t="s">
         <v>7</v>
@@ -21437,7 +21438,7 @@
         <v>7</v>
       </c>
       <c r="AJJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AJK4" t="s">
         <v>6</v>
@@ -21494,7 +21495,7 @@
         <v>7</v>
       </c>
       <c r="AKC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKD4" t="s">
         <v>6</v>
@@ -21548,7 +21549,7 @@
         <v>7</v>
       </c>
       <c r="AKU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKV4" t="s">
         <v>7</v>
@@ -21578,7 +21579,7 @@
         <v>5</v>
       </c>
       <c r="ALE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ALF4" t="s">
         <v>5</v>
@@ -22021,7 +22022,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -22063,7 +22064,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -23284,7 +23285,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -24262,7 +24263,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -24373,7 +24374,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -24385,7 +24386,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>
@@ -24954,7 +24955,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AT6" t="s">
         <v>7</v>
@@ -24966,13 +24967,13 @@
         <v>98</v>
       </c>
       <c r="CR6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CW6" t="s">
         <v>98</v>
       </c>
       <c r="CX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="DG6" t="s">
         <v>8</v>
@@ -25119,7 +25120,7 @@
         <v>7</v>
       </c>
       <c r="GK6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="GP6" t="s">
         <v>7</v>
@@ -25395,10 +25396,10 @@
         <v>7</v>
       </c>
       <c r="NS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NU6" t="s">
         <v>7</v>
@@ -25449,7 +25450,7 @@
         <v>7</v>
       </c>
       <c r="OX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="PD6" t="s">
         <v>7</v>
@@ -25515,7 +25516,7 @@
         <v>7</v>
       </c>
       <c r="RC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RD6" t="s">
         <v>7</v>
@@ -25554,7 +25555,7 @@
         <v>7</v>
       </c>
       <c r="SE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SF6" t="s">
         <v>7</v>
@@ -25572,7 +25573,7 @@
         <v>7</v>
       </c>
       <c r="SP6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="TF6" t="s">
         <v>7</v>
@@ -25860,10 +25861,10 @@
         <v>7</v>
       </c>
       <c r="AAT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAV6" t="s">
         <v>7</v>
@@ -25896,7 +25897,7 @@
         <v>7</v>
       </c>
       <c r="ABJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABN6" t="s">
         <v>7</v>
@@ -25908,7 +25909,7 @@
         <v>5</v>
       </c>
       <c r="ABX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABY6" t="s">
         <v>5</v>
@@ -25959,7 +25960,7 @@
         <v>7</v>
       </c>
       <c r="ADV6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ADY6" t="s">
         <v>5</v>
@@ -25971,13 +25972,13 @@
         <v>5</v>
       </c>
       <c r="AEC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEG6" t="s">
         <v>7</v>
       </c>
       <c r="AEX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEY6" t="s">
         <v>5</v>
@@ -25992,7 +25993,7 @@
         <v>98</v>
       </c>
       <c r="AFC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFP6" t="s">
         <v>5</v>
@@ -26043,7 +26044,7 @@
         <v>7</v>
       </c>
       <c r="AHL6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AHX6" t="s">
         <v>7</v>
@@ -26076,7 +26077,7 @@
         <v>7</v>
       </c>
       <c r="AJJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AJK6" t="s">
         <v>8</v>
@@ -26088,7 +26089,7 @@
         <v>7</v>
       </c>
       <c r="AKC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKD6" t="s">
         <v>8</v>
@@ -26103,7 +26104,7 @@
         <v>7</v>
       </c>
       <c r="AKU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKW6" t="s">
         <v>8</v>
@@ -26115,7 +26116,7 @@
         <v>7</v>
       </c>
       <c r="ALE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ALF6" t="s">
         <v>7</v>
@@ -27513,7 +27514,7 @@
         <v>7</v>
       </c>
       <c r="CH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI9" t="s">
         <v>7</v>
@@ -27528,13 +27529,13 @@
         <v>7</v>
       </c>
       <c r="EH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK9" t="s">
         <v>7</v>
       </c>
       <c r="HD9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JP9" t="s">
         <v>8</v>
@@ -27543,16 +27544,16 @@
         <v>8</v>
       </c>
       <c r="JW9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JX9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="MO9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NB9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NL9" t="s">
         <v>8</v>
@@ -27570,7 +27571,7 @@
         <v>7</v>
       </c>
       <c r="RH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE9" t="s">
         <v>7</v>
@@ -27582,13 +27583,13 @@
         <v>7</v>
       </c>
       <c r="UR9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAL9" t="s">
         <v>8</v>
       </c>
       <c r="AAM9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT9" t="s">
         <v>7</v>
@@ -27668,7 +27669,7 @@
         <v>8</v>
       </c>
       <c r="CH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI10" t="s">
         <v>8</v>
@@ -27683,25 +27684,25 @@
         <v>8</v>
       </c>
       <c r="EH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK10" t="s">
         <v>8</v>
       </c>
       <c r="HD10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JW10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JX10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="MO10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NB10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS10" t="s">
         <v>8</v>
@@ -27716,7 +27717,7 @@
         <v>8</v>
       </c>
       <c r="RH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE10" t="s">
         <v>8</v>
@@ -27728,10 +27729,10 @@
         <v>8</v>
       </c>
       <c r="UR10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAM10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT10" t="s">
         <v>8</v>
@@ -27784,180 +27785,180 @@
     </row>
     <row r="11" spans="1:1053">
       <c r="AS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CR11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CW11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="OX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="RC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SN11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SP11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ADV11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFB11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGM11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGQ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AHL11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AJJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ALE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:1053">
       <c r="AS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CR12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CW12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="OX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="RC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SN12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SP12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ADV12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFB12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGM12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGQ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AHL12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AJJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ALE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST570_UncheckShowTheTimeRangeSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST570_UncheckShowTheTimeRangeSelection.xlsx
@@ -3807,10 +3807,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -3822,10 +3818,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4353,8 +4355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4517,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4536,13 +4538,13 @@
         <v>771</v>
       </c>
       <c r="B6" s="10">
-        <v>41123</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4583,11 +4585,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>844</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4624,11 +4624,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4648,8 +4646,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4675,10 +4677,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4738,7 +4738,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4765,7 +4765,7 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4788,7 +4788,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4817,7 +4817,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4839,7 +4839,7 @@
         <v>839</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J16" s="11" t="b">
         <v>0</v>
@@ -4851,10 +4851,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>782</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4882,7 +4882,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4909,11 +4909,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>784</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4941,9 +4939,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>784</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -4998,6 +4998,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
